--- a/HW_III.xlsx
+++ b/HW_III.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/sougatam_iitd_ac_in/Documents/Documents/Teaching/Visualization/Practicals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\F\PhD\ell824\assignment_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FA31A4F7-E10A-4023-9E6F-4CE5094A1B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB81DFD-57CC-4697-BB3F-7871957CCDFC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC244121-CA97-43A0-ADC8-4956B21E4070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -265,9 +265,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +288,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -300,7 +300,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{1A867160-CFF8-4CFB-9486-A3FC92514B8F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -373,7 +377,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
   <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OrderDate"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OrderDate" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rep"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item"/>
@@ -695,13 +699,13 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -713,18 +717,18 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -738,7 +742,7 @@
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -754,7 +758,7 @@
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -781,7 +785,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="A1:G44"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,991 +824,991 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="18">
         <v>44202</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>95</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>1.99</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>189.05</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="18">
         <v>44219</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>50</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>999.49999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="18">
         <v>44236</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>36</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>4.99</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>179.64000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="18">
         <v>44253</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>27</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>539.7299999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="18">
         <v>44270</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>56</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>2.99</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>167.44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="18">
         <v>44287</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>60</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>4.99</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>299.40000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="18">
         <v>44304</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>75</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>1.99</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>149.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="18">
         <v>44321</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>90</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>4.99</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>449.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="18">
         <v>44338</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>32</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>1.99</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>63.68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="18">
         <v>44355</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>60</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>8.99</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>539.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="18">
         <v>44372</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>90</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>4.99</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>449.1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="18">
         <v>44389</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>29</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>1.99</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>57.71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="18">
         <v>44406</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>81</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>1619.1899999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="18">
         <v>44423</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>35</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>4.99</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>174.65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="18">
         <v>44440</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>125</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="18">
         <v>44457</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>16</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>15.99</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>255.84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="18">
         <v>44474</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>28</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>8.99</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>251.72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="18">
         <v>44491</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>64</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>8.99</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>575.36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="18">
         <v>44508</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>15</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>299.84999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="18">
         <v>44525</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>96</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>4.99</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>479.04</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="18">
         <v>44542</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>67</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>1.29</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>86.43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="18">
         <v>44559</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>74</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>15.99</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>1183.26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="18">
         <v>44576</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>46</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>8.99</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>413.54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="18">
         <v>44593</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>87</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>15</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>1305</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="18">
         <v>44610</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>4</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>4.99</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>19.96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="18">
         <v>44627</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>7</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>139.92999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="18">
         <v>44644</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>50</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>4.99</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>249.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="18">
         <v>44661</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>66</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>1.99</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>131.34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="18">
         <v>44678</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>96</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>4.99</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>479.04</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="18">
         <v>44695</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>53</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>1.29</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>68.37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="18">
         <v>44712</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>80</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>8.99</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>719.2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="18">
         <v>44729</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>5</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>125</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34" s="18">
         <v>44746</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>62</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>4.99</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>309.38</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35" s="18">
         <v>44763</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>55</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>12.49</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>686.95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="A36" s="18">
         <v>44780</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>42</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>23.95</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>1005.9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="18">
         <v>44797</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>275</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+      <c r="A38" s="18">
         <v>44814</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>7</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>1.29</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39" s="18">
         <v>44831</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>76</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>1.99</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>151.24</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="A40" s="18">
         <v>44848</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>57</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>1139.4299999999998</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41" s="18">
         <v>44865</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>14</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>1.29</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>18.060000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="18">
         <v>44882</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>11</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>4.99</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>54.89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="18">
         <v>44899</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <v>94</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="13">
         <v>1879.06</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+      <c r="A44" s="18">
         <v>44916</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>28</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <v>4.99</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>139.72</v>
       </c>
     </row>
